--- a/CSBA_Excel/StatData.xlsx
+++ b/CSBA_Excel/StatData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCD8D5B-7E51-430D-90BF-6F00B6958108}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696BBBC7-BF62-41B2-84FE-CAC91264A958}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Season" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="711">
   <si>
     <t>T</t>
   </si>
@@ -2038,12 +2038,6 @@
     <t>HIT_BY_PITCH</t>
   </si>
   <si>
-    <t>BASE_ON_BALLS</t>
-  </si>
-  <si>
-    <t>STRIKE_OUT</t>
-  </si>
-  <si>
     <t>TRIPLE</t>
   </si>
   <si>
@@ -2122,9 +2116,6 @@
     <t>EARNED_RUN</t>
   </si>
   <si>
-    <t>STRIKEOUT</t>
-  </si>
-  <si>
     <t>HOMERUNS_ALLOWED</t>
   </si>
   <si>
@@ -2147,6 +2138,18 @@
   </si>
   <si>
     <t>VARCHAR(5)</t>
+  </si>
+  <si>
+    <t>BASE_ON_BALLS_PITCHERS</t>
+  </si>
+  <si>
+    <t>STRIKEOUT_PITCHER</t>
+  </si>
+  <si>
+    <t>BASE_ON_BALLS_BATTERS</t>
+  </si>
+  <si>
+    <t>STRIKEOUT_BATTERS</t>
   </si>
 </sst>
 </file>
@@ -2560,7 +2563,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,8 +2628,8 @@
     <col min="16" max="16" width="18.85546875" style="6" customWidth="1"/>
     <col min="17" max="17" width="16.140625" style="6" customWidth="1"/>
     <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="14" style="6" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20" style="6" customWidth="1"/>
     <col min="21" max="21" width="21.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.28515625" style="6" customWidth="1"/>
     <col min="23" max="28" width="9.140625" style="8"/>
@@ -2646,58 +2649,58 @@
         <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -2711,61 +2714,61 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="E2" t="s">
-        <v>687</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>701</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -12496,8 +12499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12519,8 +12522,8 @@
     <col min="15" max="15" width="14.28515625" style="6" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" style="6" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" style="6" customWidth="1"/>
     <col min="20" max="20" width="14" style="6" customWidth="1"/>
     <col min="21" max="21" width="17.28515625" style="6" customWidth="1"/>
   </cols>
@@ -12539,55 +12542,55 @@
         <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -12601,34 +12604,34 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="E2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F2" t="s">
-        <v>686</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>682</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>669</v>
@@ -12643,16 +12646,16 @@
         <v>672</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">

--- a/CSBA_Excel/StatData.xlsx
+++ b/CSBA_Excel/StatData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CEFD8E-C419-4119-87C3-1D1AF9F7BE59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25240" windowHeight="14300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25245" windowHeight="14295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Season" sheetId="5" r:id="rId1"/>
@@ -1067,15 +1068,9 @@
     <t>Musial</t>
   </si>
   <si>
-    <t>O'Doul</t>
-  </si>
-  <si>
     <t>Tip</t>
   </si>
   <si>
-    <t>O'Neil</t>
-  </si>
-  <si>
     <t>Kirby</t>
   </si>
   <si>
@@ -2154,16 +2149,22 @@
   </si>
   <si>
     <t>Deacon</t>
+  </si>
+  <si>
+    <t>O''Doul</t>
+  </si>
+  <si>
+    <t>O''Neil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2572,32 +2573,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" t="s">
         <v>372</v>
       </c>
-      <c r="B1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -2609,7 +2610,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2620,41 +2620,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.25" style="6" customWidth="1"/>
-    <col min="12" max="12" width="16.25" style="6" customWidth="1"/>
-    <col min="13" max="13" width="18.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="15.25" style="6" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="18.875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14.25" style="6" customWidth="1"/>
-    <col min="19" max="19" width="24.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" style="6" customWidth="1"/>
     <col min="20" max="20" width="20" style="6" customWidth="1"/>
-    <col min="21" max="21" width="21.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.25" style="6" customWidth="1"/>
-    <col min="23" max="28" width="8.625" style="8"/>
+    <col min="21" max="21" width="21.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" style="6" customWidth="1"/>
+    <col min="23" max="28" width="8.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -2790,110 +2790,110 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="W3" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="X3" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="AA3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>564</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="B4" t="s">
         <v>565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" t="s">
-        <v>566</v>
-      </c>
-      <c r="B4" t="s">
-        <v>567</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G4" s="4">
         <v>3.6862003780718338</v>
@@ -2962,24 +2962,24 @@
         <v>13.185255198487713</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G5" s="4">
         <v>3.9089881288863761</v>
@@ -3048,24 +3048,24 @@
         <v>11.472583380440925</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>259</v>
       </c>
       <c r="D6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G6" s="4">
         <v>3.3240766453762838</v>
@@ -3134,24 +3134,24 @@
         <v>11.046931407942237</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G7" s="4">
         <v>3.3229329173166922</v>
@@ -3220,24 +3220,24 @@
         <v>11.06396255850234</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G8" s="4">
         <v>3.7022292993630574</v>
@@ -3306,24 +3306,24 @@
         <v>11.751592356687897</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G9" s="4">
         <v>2.77</v>
@@ -3392,24 +3392,24 @@
         <v>11.016597510373442</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G10" s="4">
         <v>3.5083429228998844</v>
@@ -3478,24 +3478,24 @@
         <v>11.172324510932103</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>264</v>
       </c>
       <c r="D11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G11" s="4">
         <v>3.7991938438988644</v>
@@ -3564,24 +3564,24 @@
         <v>11.390985709050934</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G12" s="4">
         <v>3.6946249261665685</v>
@@ -3650,24 +3650,24 @@
         <v>12.67867690490254</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G13" s="4">
         <v>3.4875394875394878</v>
@@ -3736,24 +3736,24 @@
         <v>10.961740961740961</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G14" s="4">
         <v>3.3611570842627905</v>
@@ -3822,24 +3822,24 @@
         <v>10.964236885658776</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B15" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F15" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G15" s="4">
         <v>4.10049809551714</v>
@@ -3908,24 +3908,24 @@
         <v>11.563140931731613</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B16" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F16" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G16" s="4">
         <v>3.5527539526712824</v>
@@ -3994,24 +3994,24 @@
         <v>12.211429161930351</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>270</v>
       </c>
       <c r="D17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G17" s="4">
         <v>3.760240305843801</v>
@@ -4080,24 +4080,24 @@
         <v>11.821409066084108</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B18" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>271</v>
       </c>
       <c r="D18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G18" s="4">
         <v>4.190283400809717</v>
@@ -4166,24 +4166,24 @@
         <v>12.136406104017441</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B19" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>272</v>
       </c>
       <c r="D19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G19" s="4">
         <v>3.6041426927502869</v>
@@ -4252,24 +4252,24 @@
         <v>11.516685845799769</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B20" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>273</v>
       </c>
       <c r="D20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E20" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G20" s="4">
         <v>3.616810527805292</v>
@@ -4338,24 +4338,24 @@
         <v>11.932927692089997</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>274</v>
       </c>
       <c r="D21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G21" s="4">
         <v>3.2147386219529381</v>
@@ -4424,24 +4424,24 @@
         <v>10.27194589263069</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B22" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E22" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F22" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G22" s="4">
         <v>3.4721495327102807</v>
@@ -4510,24 +4510,24 @@
         <v>11.526728971962616</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>276</v>
       </c>
       <c r="D23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E23" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G23" s="4">
         <v>3.2548841435711036</v>
@@ -4596,24 +4596,24 @@
         <v>10.688777828259884</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B24" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>277</v>
       </c>
       <c r="D24" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E24" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G24" s="4">
         <v>3.3493975903614461</v>
@@ -4682,24 +4682,24 @@
         <v>10.120481927710843</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>278</v>
       </c>
       <c r="D25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E25" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G25" s="4">
         <v>3.4424804404520422</v>
@@ -4768,24 +4768,24 @@
         <v>10.998985801217037</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>279</v>
       </c>
       <c r="D26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G26" s="4">
         <v>3.7962594508555512</v>
@@ -4854,24 +4854,24 @@
         <v>12.158774373259051</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B27" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F27" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G27" s="4">
         <v>3.8818662376465172</v>
@@ -4940,24 +4940,24 @@
         <v>11.728338313031484</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B28" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G28" s="4">
         <v>2.6853813559322033</v>
@@ -5026,24 +5026,24 @@
         <v>9.4862288135593218</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B29" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E29" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F29" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G29" s="4">
         <v>4.0909090909090908</v>
@@ -5112,24 +5112,24 @@
         <v>13.596952180767207</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B30" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G30" s="4">
         <v>3.5078864353312298</v>
@@ -5198,24 +5198,24 @@
         <v>11.274447949526811</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B31" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E31" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F31" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G31" s="4">
         <v>3.5061472374463039</v>
@@ -5284,24 +5284,24 @@
         <v>12.078210635461412</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B32" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F32" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G32" s="4">
         <v>3.5444290520482875</v>
@@ -5370,24 +5370,24 @@
         <v>11.80882643973877</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E33" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F33" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G33" s="4">
         <v>2.8839306907192026</v>
@@ -5456,24 +5456,24 @@
         <v>11.428910515072396</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B34" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E34" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F34" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G34" s="4">
         <v>3.3132530120481927</v>
@@ -5542,24 +5542,24 @@
         <v>11.762048192771083</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E35" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F35" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G35" s="4">
         <v>3.2830832681504658</v>
@@ -5628,24 +5628,24 @@
         <v>10.777216810068976</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B36" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E36" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F36" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G36" s="4">
         <v>3.7825682382134</v>
@@ -5714,24 +5714,24 @@
         <v>11.647797766749381</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B37" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E37" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F37" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G37" s="4">
         <v>3.9933206106870225</v>
@@ -5800,24 +5800,24 @@
         <v>12.559637404580151</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B38" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E38" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F38" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G38" s="4">
         <v>3.241818581155282</v>
@@ -5886,24 +5886,24 @@
         <v>10.911486931693389</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B39" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E39" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F39" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G39" s="4">
         <v>3.3400460299194479</v>
@@ -5972,24 +5972,24 @@
         <v>11.65132336018412</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B40" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D40" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E40" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F40" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G40" s="4">
         <v>3.6411428571428579</v>
@@ -6058,24 +6058,24 @@
         <v>12.054857142857145</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B41" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E41" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F41" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G41" s="4">
         <v>3.5337972166998015</v>
@@ -6144,24 +6144,24 @@
         <v>11.794234592445328</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B42" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>178</v>
       </c>
       <c r="D42" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E42" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F42" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G42" s="4">
         <v>3.1191730847182821</v>
@@ -6230,24 +6230,24 @@
         <v>11.783542764491287</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B43" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E43" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F43" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G43" s="4">
         <v>3.3339832325989471</v>
@@ -6316,24 +6316,24 @@
         <v>10.370442581399885</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B44" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E44" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F44" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G44" s="4">
         <v>3.4729064039408866</v>
@@ -6402,24 +6402,24 @@
         <v>12.044334975369459</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>181</v>
       </c>
       <c r="D45" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E45" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F45" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G45" s="4">
         <v>3.446015867540531</v>
@@ -6488,24 +6488,24 @@
         <v>10.809934460158676</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B46" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E46" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F46" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G46" s="4">
         <v>3.6624019810152695</v>
@@ -6574,24 +6574,24 @@
         <v>12.004952538175813</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B47" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E47" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F47" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G47" s="4">
         <v>3.5506671474936891</v>
@@ -6660,24 +6660,24 @@
         <v>10.944103858636856</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B48" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E48" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F48" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G48" s="4">
         <v>3.3624678663239074</v>
@@ -6746,24 +6746,24 @@
         <v>10.812339331619537</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B49" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>185</v>
       </c>
       <c r="D49" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E49" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F49" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G49" s="4">
         <v>3.4174022698612863</v>
@@ -6832,24 +6832,24 @@
         <v>10.390920554854979</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B50" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>186</v>
       </c>
       <c r="D50" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E50" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F50" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G50" s="4">
         <v>2.5242070116861433</v>
@@ -6918,24 +6918,24 @@
         <v>10.084808013355593</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B51" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>187</v>
       </c>
       <c r="D51" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E51" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F51" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G51" s="4">
         <v>3.6183141383452262</v>
@@ -7004,24 +7004,24 @@
         <v>10.530629548505615</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B52" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E52" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F52" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G52" s="4">
         <v>3.3800808176848109</v>
@@ -7090,24 +7090,24 @@
         <v>11.637746612788209</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B53" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E53" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F53" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G53" s="4">
         <v>3.7920784721706169</v>
@@ -7176,24 +7176,24 @@
         <v>11.429739169205616</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B54" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E54" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F54" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G54" s="4">
         <v>3.4066208619612741</v>
@@ -7262,24 +7262,24 @@
         <v>11.231730168644599</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B55" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E55" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F55" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G55" s="4">
         <v>3.9390756302521002</v>
@@ -7348,24 +7348,24 @@
         <v>12.41596638655462</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E56" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F56" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G56" s="4">
         <v>3.2490272373540852</v>
@@ -7434,24 +7434,24 @@
         <v>11.005188067444875</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B57" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E57" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F57" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G57" s="4">
         <v>3.8376500315855964</v>
@@ -7520,24 +7520,24 @@
         <v>12.877447883765001</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B58" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E58" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F58" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G58" s="4">
         <v>3.6933534743202414</v>
@@ -7606,24 +7606,24 @@
         <v>11.771148036253773</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B59" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E59" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F59" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G59" s="4">
         <v>3.7453276850236734</v>
@@ -7692,24 +7692,24 @@
         <v>12.626463992025919</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B60" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>196</v>
       </c>
       <c r="D60" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E60" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F60" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G60" s="4">
         <v>4.2266666666666666</v>
@@ -7778,24 +7778,24 @@
         <v>12.500957487552663</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B61" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D61" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E61" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F61" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G61" s="4">
         <v>2.6038264115725616</v>
@@ -7864,24 +7864,24 @@
         <v>9.737350843277115</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B62" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>198</v>
       </c>
       <c r="D62" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E62" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F62" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G62" s="4">
         <v>3.1799250312369844</v>
@@ -7950,24 +7950,24 @@
         <v>10.601832569762598</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B63" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>199</v>
       </c>
       <c r="D63" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E63" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F63" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G63" s="4">
         <v>3.8486281929990538</v>
@@ -8036,24 +8036,24 @@
         <v>12.635761589403971</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B64" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>200</v>
       </c>
       <c r="D64" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E64" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F64" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G64" s="4">
         <v>2.6832603938730855</v>
@@ -8122,24 +8122,24 @@
         <v>9.3421772428884022</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B65" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E65" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F65" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G65" s="4">
         <v>3.4156987497225719</v>
@@ -8208,24 +8208,24 @@
         <v>10.839683361692686</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B66" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E66" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F66" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G66" s="4">
         <v>3.9976373301831067</v>
@@ -8294,24 +8294,24 @@
         <v>12.07796810395747</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B67" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E67" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F67" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G67" s="4">
         <v>3.0680074995738882</v>
@@ -8380,24 +8380,24 @@
         <v>11.412987898414864</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B68" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>204</v>
       </c>
       <c r="D68" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E68" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F68" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G68" s="4">
         <v>3.5708336488225942</v>
@@ -8466,24 +8466,24 @@
         <v>10.991898235784053</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B69" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>205</v>
       </c>
       <c r="D69" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E69" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F69" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G69" s="4">
         <v>4.03</v>
@@ -8552,24 +8552,24 @@
         <v>12.227586206896554</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B70" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E70" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F70" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G70" s="4">
         <v>3.0546500479386385</v>
@@ -8638,24 +8638,24 @@
         <v>11.131351869606904</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B71" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E71" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F71" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G71" s="4">
         <v>3.3489561141883257</v>
@@ -8724,24 +8724,24 @@
         <v>10.788240306774608</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B72" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E72" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F72" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G72" s="4">
         <v>4.0287032291132761</v>
@@ -8810,24 +8810,24 @@
         <v>11.916965658636599</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B73" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>209</v>
       </c>
       <c r="D73" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E73" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F73" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G73" s="4">
         <v>4.016587677725119</v>
@@ -8896,24 +8896,24 @@
         <v>11.872037914691944</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B74" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D74" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E74" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F74" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G74" s="4">
         <v>3.1909328683522231</v>
@@ -8982,24 +8982,24 @@
         <v>11.933304272013947</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B75" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E75" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F75" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G75" s="4">
         <v>3.8019946485040133</v>
@@ -9068,24 +9068,24 @@
         <v>11.57382631963026</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B76" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D76" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E76" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F76" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G76" s="4">
         <v>3.5169430425378518</v>
@@ -9154,24 +9154,24 @@
         <v>11.87454938716655</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B77" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>213</v>
       </c>
       <c r="D77" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E77" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F77" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G77" s="4">
         <v>3.8340807174887885</v>
@@ -9240,24 +9240,24 @@
         <v>12.460762331838563</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B78" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>214</v>
       </c>
       <c r="D78" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E78" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F78" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G78" s="4">
         <v>3.8612670408981558</v>
@@ -9326,24 +9326,24 @@
         <v>11.989775461106658</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B79" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E79" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F79" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G79" s="4">
         <v>3.8516717325227967</v>
@@ -9412,24 +9412,24 @@
         <v>12.178723404255319</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B80" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D80" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E80" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F80" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G80" s="4">
         <v>3.3576786419265692</v>
@@ -9498,24 +9498,24 @@
         <v>11.032372680615872</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B81" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E81" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F81" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G81" s="4">
         <v>3.8841368584758942</v>
@@ -9584,24 +9584,24 @@
         <v>12.982115085536545</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B82" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D82" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E82" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F82" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G82" s="4">
         <v>4.0274663677130045</v>
@@ -9670,24 +9670,24 @@
         <v>12.42713004484305</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B83" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>115</v>
       </c>
       <c r="D83" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E83" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F83" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G83" s="4">
         <v>3.781289226906889</v>
@@ -9756,24 +9756,24 @@
         <v>11.397031676881046</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B84" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E84" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F84" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G84" s="4">
         <v>3.4804539722572509</v>
@@ -9842,24 +9842,24 @@
         <v>11.26607818411097</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B85" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D85" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E85" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F85" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G85" s="4">
         <v>2.5125754527162973</v>
@@ -9928,24 +9928,24 @@
         <v>10.321931589537222</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B86" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D86" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E86" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F86" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G86" s="4">
         <v>3.6552009946125157</v>
@@ -10014,24 +10014,24 @@
         <v>13.632407791131371</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B87" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D87" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E87" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F87" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G87" s="4">
         <v>2.0796087029853263</v>
@@ -10100,24 +10100,24 @@
         <v>9.5176252319109462</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B88" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D88" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E88" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F88" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G88" s="4">
         <v>4.0785918320080281</v>
@@ -10186,24 +10186,24 @@
         <v>12.096811549448002</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B89" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D89" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E89" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F89" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G89" s="4">
         <v>3.3405672378956814</v>
@@ -10272,24 +10272,24 @@
         <v>10.668263114570079</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B90" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D90" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E90" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F90" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G90" s="4">
         <v>3.8305149154474636</v>
@@ -10358,24 +10358,24 @@
         <v>12.449173475204256</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B91" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D91" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E91" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F91" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G91" s="4">
         <v>4.1456938351419987</v>
@@ -10444,24 +10444,24 @@
         <v>12.42669129531286</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B92" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E92" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F92" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G92" s="4">
         <v>3.4795152914021927</v>
@@ -10530,24 +10530,24 @@
         <v>10.451529140219272</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B93" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D93" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E93" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F93" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G93" s="4">
         <v>3.016472937317265</v>
@@ -10616,24 +10616,24 @@
         <v>10.345860372245596</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>126</v>
       </c>
       <c r="D94" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E94" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F94" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G94" s="4">
         <v>3.8028169014084505</v>
@@ -10702,24 +10702,24 @@
         <v>12.04225352112676</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B95" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D95" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E95" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F95" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G95" s="4">
         <v>2.9550584855325264</v>
@@ -10788,24 +10788,24 @@
         <v>10.795198029961011</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B96" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D96" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E96" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F96" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G96" s="4">
         <v>3.6771818378690537</v>
@@ -10874,24 +10874,24 @@
         <v>11.239442719988451</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B97" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D97" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E97" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F97" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G97" s="4">
         <v>3.1788526434195723</v>
@@ -10960,24 +10960,24 @@
         <v>11.581552305961754</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B98" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>130</v>
       </c>
       <c r="D98" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E98" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F98" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G98" s="4">
         <v>3.3080436063641714</v>
@@ -11046,24 +11046,24 @@
         <v>10.421331761932821</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B99" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D99" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E99" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F99" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G99" s="4">
         <v>3.5427952329360779</v>
@@ -11132,24 +11132,24 @@
         <v>10.972914409534129</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B100" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>132</v>
       </c>
       <c r="D100" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E100" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F100" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G100" s="4">
         <v>3.459793294681119</v>
@@ -11218,24 +11218,24 @@
         <v>11.695235694479454</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B101" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>133</v>
       </c>
       <c r="D101" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E101" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F101" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G101" s="4">
         <v>3.2924623115577893</v>
@@ -11304,24 +11304,24 @@
         <v>11.324623115577891</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B102" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D102" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E102" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F102" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G102" s="4">
         <v>4.2727547626247357</v>
@@ -11390,24 +11390,24 @@
         <v>12.001814333232538</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B103" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D103" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E103" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F103" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G103" s="4">
         <v>3.4527911784975869</v>
@@ -11476,24 +11476,24 @@
         <v>11.557546519641624</v>
       </c>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B104" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D104" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E104" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F104" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G104" s="4">
         <v>3.6885986941235549</v>
@@ -11562,24 +11562,24 @@
         <v>12.385735811150173</v>
       </c>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B105" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D105" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E105" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F105" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G105" s="4">
         <v>3.0874120855461458</v>
@@ -11648,24 +11648,24 @@
         <v>10.747811109516292</v>
       </c>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B106" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>138</v>
       </c>
       <c r="D106" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E106" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F106" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G106" s="4">
         <v>3.1629795575469055</v>
@@ -11734,24 +11734,24 @@
         <v>10.667180061607393</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B107" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>139</v>
       </c>
       <c r="D107" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E107" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F107" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G107" s="4">
         <v>3.9754445385266721</v>
@@ -11820,24 +11820,24 @@
         <v>12.675698560541914</v>
       </c>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B108" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>140</v>
       </c>
       <c r="D108" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E108" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F108" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G108" s="4">
         <v>3.6491881820601551</v>
@@ -11906,24 +11906,24 @@
         <v>11.466595688048976</v>
       </c>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B109" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D109" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E109" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F109" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G109" s="4">
         <v>2.1492537313432836</v>
@@ -11992,24 +11992,24 @@
         <v>9.0079016681299375</v>
       </c>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B110" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>142</v>
       </c>
       <c r="D110" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E110" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F110" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G110" s="4">
         <v>3.4796723972552202</v>
@@ -12078,24 +12078,24 @@
         <v>10.339408249096142</v>
       </c>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D111" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E111" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F111" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G111" s="4">
         <v>2.9649849397590362</v>
@@ -12164,24 +12164,24 @@
         <v>10.843373493975903</v>
       </c>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B112" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>144</v>
       </c>
       <c r="D112" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E112" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F112" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G112" s="4">
         <v>2.7465785747994338</v>
@@ -12250,24 +12250,24 @@
         <v>9.6838131193959427</v>
       </c>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B113" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>145</v>
       </c>
       <c r="D113" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E113" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F113" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G113" s="4">
         <v>3.2681743597060713</v>
@@ -12336,24 +12336,24 @@
         <v>10.555753727616466</v>
       </c>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B114" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>146</v>
       </c>
       <c r="D114" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E114" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F114" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G114" s="4">
         <v>4.0882448713774009</v>
@@ -12422,24 +12422,24 @@
         <v>12.616411592315206</v>
       </c>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B115" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D115" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E115" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F115" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G115" s="4">
         <v>3.4273182957393482</v>
@@ -12509,7 +12509,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -12521,39 +12520,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="21.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="21" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="17.625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="6" customWidth="1"/>
-    <col min="15" max="15" width="14.25" style="6" customWidth="1"/>
-    <col min="16" max="16" width="19.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13.625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="24.875" style="6" customWidth="1"/>
-    <col min="19" max="19" width="21.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" style="6" customWidth="1"/>
     <col min="20" max="20" width="14" style="6" customWidth="1"/>
-    <col min="21" max="21" width="17.25" style="6" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4</v>
       </c>
@@ -12618,7 +12617,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -12683,89 +12682,89 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="S3" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="T3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>440</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="B4" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4" t="s">
-        <v>443</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G4" s="8">
         <v>0.22000000000000003</v>
@@ -12813,24 +12812,24 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G5" s="8">
         <v>0.23840000000000003</v>
@@ -12878,24 +12877,24 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G6" s="8">
         <v>0.2024</v>
@@ -12943,24 +12942,24 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G7" s="8">
         <v>0.25139999999999996</v>
@@ -13008,24 +13007,24 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G8" s="8">
         <v>0.21459999999999999</v>
@@ -13073,24 +13072,24 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G9" s="8">
         <v>0.21539999999999998</v>
@@ -13138,24 +13137,24 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G10" s="8">
         <v>0.23899999999999996</v>
@@ -13203,24 +13202,24 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G11" s="8">
         <v>0.22680000000000003</v>
@@ -13268,24 +13267,24 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G12" s="8">
         <v>0.25919999999999999</v>
@@ -13333,24 +13332,24 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G13" s="8">
         <v>0.20600000000000002</v>
@@ -13398,24 +13397,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G14" s="8">
         <v>0.26479999999999998</v>
@@ -13463,24 +13462,24 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F15" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G15" s="8">
         <v>0.2412</v>
@@ -13528,24 +13527,24 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G16" s="8">
         <v>0.23359999999999997</v>
@@ -13593,24 +13592,24 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G17" s="8">
         <v>0.24219999999999997</v>
@@ -13658,24 +13657,24 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G18" s="8">
         <v>0.24625</v>
@@ -13723,24 +13722,24 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G19" s="8">
         <v>0.254</v>
@@ -13788,24 +13787,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G20" s="8">
         <v>0.29139999999999999</v>
@@ -13853,24 +13852,24 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E21" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G21" s="8">
         <v>0.25179999999999997</v>
@@ -13918,24 +13917,24 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E22" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G22" s="8">
         <v>0.27260000000000006</v>
@@ -13983,24 +13982,24 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B23" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G23" s="8">
         <v>0.30219999999999997</v>
@@ -14048,24 +14047,24 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E24" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G24" s="8">
         <v>0.24939999999999998</v>
@@ -14113,24 +14112,24 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E25" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G25" s="8">
         <v>0.26580000000000004</v>
@@ -14178,24 +14177,24 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B26" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G26" s="8">
         <v>0.23599999999999999</v>
@@ -14243,24 +14242,24 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B27" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F27" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G27" s="8">
         <v>0.28039999999999998</v>
@@ -14308,24 +14307,24 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B28" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E28" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F28" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G28" s="8">
         <v>0.29175000000000001</v>
@@ -14373,24 +14372,24 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E29" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F29" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G29" s="8">
         <v>0.22933333333333331</v>
@@ -14438,24 +14437,24 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B30" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G30" s="8">
         <v>0.27100000000000002</v>
@@ -14503,24 +14502,24 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B31" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E31" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F31" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G31" s="8">
         <v>0.25700000000000001</v>
@@ -14568,24 +14567,24 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B32" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E32" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F32" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G32" s="8">
         <v>0.26040000000000002</v>
@@ -14633,24 +14632,24 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B33" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E33" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F33" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G33" s="8">
         <v>0.253</v>
@@ -14698,24 +14697,24 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B34" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E34" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F34" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G34" s="8">
         <v>0.29999999999999993</v>
@@ -14763,24 +14762,24 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B35" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E35" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F35" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G35" s="8">
         <v>0.30799999999999994</v>
@@ -14828,24 +14827,24 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B36" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F36" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G36" s="8">
         <v>0.2772</v>
@@ -14893,24 +14892,24 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B37" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E37" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F37" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G37" s="8">
         <v>0.26440000000000002</v>
@@ -14958,24 +14957,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B38" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E38" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G38" s="8">
         <v>0.2266</v>
@@ -15023,24 +15022,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B39" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E39" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F39" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G39" s="8">
         <v>0.29759999999999998</v>
@@ -15088,24 +15087,24 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B40" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E40" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F40" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G40" s="8">
         <v>0.31679999999999997</v>
@@ -15153,24 +15152,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B41" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E41" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F41" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G41" s="8">
         <v>0.24775</v>
@@ -15218,24 +15217,24 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B42" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E42" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F42" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G42" s="8">
         <v>0.23959999999999998</v>
@@ -15283,24 +15282,24 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B43" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E43" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F43" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G43" s="8">
         <v>0.25900000000000001</v>
@@ -15348,24 +15347,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B44" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E44" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F44" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G44" s="8">
         <v>0.23980000000000001</v>
@@ -15413,24 +15412,24 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B45" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E45" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F45" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G45" s="8">
         <v>0.26100000000000001</v>
@@ -15478,24 +15477,24 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B46" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E46" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F46" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G46" s="8">
         <v>0.24420000000000003</v>
@@ -15543,24 +15542,24 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B47" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E47" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F47" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G47" s="8">
         <v>0.27179999999999999</v>
@@ -15608,24 +15607,24 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B48" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F48" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G48" s="8">
         <v>0.28720000000000001</v>
@@ -15673,24 +15672,24 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B49" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E49" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F49" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G49" s="8">
         <v>0.27839999999999998</v>
@@ -15738,24 +15737,24 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B50" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E50" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G50" s="8">
         <v>0.21799999999999997</v>
@@ -15803,24 +15802,24 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B51" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E51" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F51" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G51" s="8">
         <v>0.26100000000000001</v>
@@ -15868,24 +15867,24 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E52" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F52" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G52" s="8">
         <v>0.27360000000000001</v>
@@ -15933,24 +15932,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B53" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E53" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F53" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G53" s="8">
         <v>0.25939999999999996</v>
@@ -15998,24 +15997,24 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B54" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E54" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F54" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G54" s="8">
         <v>0.25840000000000007</v>
@@ -16063,24 +16062,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B55" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E55" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F55" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G55" s="8">
         <v>0.24180000000000001</v>
@@ -16128,24 +16127,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B56" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E56" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F56" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G56" s="8">
         <v>0.28399999999999997</v>
@@ -16193,24 +16192,24 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B57" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E57" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F57" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G57" s="8">
         <v>0.24440000000000001</v>
@@ -16258,24 +16257,24 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B58" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E58" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F58" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G58" s="8">
         <v>0.2172</v>
@@ -16323,24 +16322,24 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B59" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E59" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F59" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G59" s="8">
         <v>0.2404</v>
@@ -16388,24 +16387,24 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B60" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E60" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F60" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G60" s="8">
         <v>0.26099999999999995</v>
@@ -16453,24 +16452,24 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E61" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F61" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G61" s="8">
         <v>0.22519999999999998</v>
@@ -16518,24 +16517,24 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E62" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F62" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G62" s="8">
         <v>0.25140000000000001</v>
@@ -16583,24 +16582,24 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E63" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F63" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G63" s="8">
         <v>0.2492</v>
@@ -16648,7 +16647,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>280</v>
       </c>
@@ -16659,13 +16658,13 @@
         <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E64" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F64" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G64" s="8">
         <v>0.26540000000000002</v>
@@ -16713,7 +16712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>282</v>
       </c>
@@ -16724,13 +16723,13 @@
         <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F65" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G65" s="8">
         <v>0.26519999999999999</v>
@@ -16778,24 +16777,24 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B66" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D66" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E66" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F66" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G66" s="8">
         <v>0.25640000000000002</v>
@@ -16843,7 +16842,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>284</v>
       </c>
@@ -16854,13 +16853,13 @@
         <v>107</v>
       </c>
       <c r="D67" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E67" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F67" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G67" s="8">
         <v>0.23719999999999999</v>
@@ -16908,24 +16907,24 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>286</v>
       </c>
       <c r="B68" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E68" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F68" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G68" s="8">
         <v>0.26559999999999995</v>
@@ -16973,7 +16972,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>287</v>
       </c>
@@ -16984,13 +16983,13 @@
         <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E69" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F69" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G69" s="8">
         <v>0.2394</v>
@@ -17038,7 +17037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>289</v>
       </c>
@@ -17049,13 +17048,13 @@
         <v>110</v>
       </c>
       <c r="D70" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E70" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F70" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G70" s="8">
         <v>0.27150000000000002</v>
@@ -17103,7 +17102,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -17114,13 +17113,13 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E71" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F71" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G71" s="8">
         <v>0.26739999999999997</v>
@@ -17168,24 +17167,24 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>293</v>
       </c>
       <c r="B72" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E72" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F72" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G72" s="8">
         <v>0.29779999999999995</v>
@@ -17233,9 +17232,9 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s">
         <v>294</v>
@@ -17244,13 +17243,13 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E73" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F73" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G73" s="8">
         <v>0.27749999999999997</v>
@@ -17298,9 +17297,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s">
         <v>295</v>
@@ -17309,13 +17308,13 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E74" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F74" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G74" s="8">
         <v>0.28460000000000002</v>
@@ -17363,7 +17362,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>296</v>
       </c>
@@ -17374,13 +17373,13 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E75" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F75" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G75" s="8">
         <v>0.28749999999999998</v>
@@ -17428,7 +17427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>298</v>
       </c>
@@ -17439,13 +17438,13 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E76" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F76" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G76" s="8">
         <v>0.25700000000000001</v>
@@ -17493,9 +17492,9 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B77" t="s">
         <v>300</v>
@@ -17504,13 +17503,13 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E77" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F77" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G77" s="8">
         <v>0.29819999999999997</v>
@@ -17558,9 +17557,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B78" t="s">
         <v>301</v>
@@ -17569,13 +17568,13 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E78" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F78" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G78" s="8">
         <v>0.28599999999999998</v>
@@ -17623,7 +17622,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>302</v>
       </c>
@@ -17634,13 +17633,13 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E79" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F79" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G79" s="8">
         <v>0.33379999999999999</v>
@@ -17688,7 +17687,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>304</v>
       </c>
@@ -17699,13 +17698,13 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E80" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F80" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G80" s="8">
         <v>0.249</v>
@@ -17753,7 +17752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>306</v>
       </c>
@@ -17764,13 +17763,13 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E81" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F81" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G81" s="8">
         <v>0.27659999999999996</v>
@@ -17818,7 +17817,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>308</v>
       </c>
@@ -17829,13 +17828,13 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E82" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F82" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G82" s="8">
         <v>0.23100000000000001</v>
@@ -17883,9 +17882,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B83" t="s">
         <v>310</v>
@@ -17894,13 +17893,13 @@
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E83" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F83" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G83" s="8">
         <v>0.28320000000000001</v>
@@ -17948,9 +17947,9 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B84" t="s">
         <v>311</v>
@@ -17959,13 +17958,13 @@
         <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E84" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F84" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G84" s="8">
         <v>0.28060000000000007</v>
@@ -18013,7 +18012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>312</v>
       </c>
@@ -18024,13 +18023,13 @@
         <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E85" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F85" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G85" s="8">
         <v>0.23980000000000001</v>
@@ -18078,9 +18077,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B86" t="s">
         <v>314</v>
@@ -18089,13 +18088,13 @@
         <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E86" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F86" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G86" s="8">
         <v>0.28460000000000002</v>
@@ -18143,7 +18142,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>315</v>
       </c>
@@ -18154,13 +18153,13 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E87" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F87" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G87" s="8">
         <v>0.27179999999999999</v>
@@ -18208,9 +18207,9 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B88" t="s">
         <v>317</v>
@@ -18219,13 +18218,13 @@
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E88" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F88" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G88" s="8">
         <v>0.21350000000000002</v>
@@ -18273,7 +18272,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>318</v>
       </c>
@@ -18284,13 +18283,13 @@
         <v>25</v>
       </c>
       <c r="D89" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E89" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F89" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G89" s="8">
         <v>0.26020000000000004</v>
@@ -18338,9 +18337,9 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B90" t="s">
         <v>320</v>
@@ -18349,13 +18348,13 @@
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E90" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F90" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G90" s="8">
         <v>0.29139999999999999</v>
@@ -18403,7 +18402,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>321</v>
       </c>
@@ -18414,13 +18413,13 @@
         <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E91" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F91" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G91" s="8">
         <v>0.27324999999999999</v>
@@ -18468,9 +18467,9 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B92" t="s">
         <v>323</v>
@@ -18479,13 +18478,13 @@
         <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E92" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F92" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G92" s="8">
         <v>0.28539999999999999</v>
@@ -18533,9 +18532,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B93" t="s">
         <v>324</v>
@@ -18544,13 +18543,13 @@
         <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E93" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F93" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G93" s="8">
         <v>0.29280000000000006</v>
@@ -18598,7 +18597,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>325</v>
       </c>
@@ -18609,13 +18608,13 @@
         <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E94" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F94" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G94" s="8">
         <v>0.26860000000000001</v>
@@ -18663,9 +18662,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B95" t="s">
         <v>327</v>
@@ -18674,13 +18673,13 @@
         <v>31</v>
       </c>
       <c r="D95" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E95" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F95" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G95" s="8">
         <v>0.26300000000000001</v>
@@ -18728,24 +18727,24 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B96" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E96" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F96" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G96" s="8">
         <v>0.31219999999999998</v>
@@ -18793,24 +18792,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>328</v>
       </c>
       <c r="B97" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E97" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F97" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G97" s="8">
         <v>0.2472</v>
@@ -18858,9 +18857,9 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B98" t="s">
         <v>329</v>
@@ -18869,13 +18868,13 @@
         <v>34</v>
       </c>
       <c r="D98" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E98" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F98" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G98" s="8">
         <v>0.27079999999999999</v>
@@ -18923,9 +18922,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B99" t="s">
         <v>330</v>
@@ -18934,13 +18933,13 @@
         <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E99" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F99" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G99" s="8">
         <v>0.31759999999999999</v>
@@ -18988,7 +18987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>331</v>
       </c>
@@ -18999,13 +18998,13 @@
         <v>36</v>
       </c>
       <c r="D100" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E100" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F100" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G100" s="8">
         <v>0.19900000000000001</v>
@@ -19053,7 +19052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>333</v>
       </c>
@@ -19064,13 +19063,13 @@
         <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E101" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F101" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G101" s="8">
         <v>0.24780000000000002</v>
@@ -19118,7 +19117,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>335</v>
       </c>
@@ -19129,13 +19128,13 @@
         <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E102" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F102" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G102" s="8">
         <v>0.27174999999999999</v>
@@ -19183,7 +19182,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>337</v>
       </c>
@@ -19194,13 +19193,13 @@
         <v>39</v>
       </c>
       <c r="D103" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E103" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F103" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G103" s="8">
         <v>0.27660000000000001</v>
@@ -19248,7 +19247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>339</v>
       </c>
@@ -19259,13 +19258,13 @@
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E104" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F104" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G104" s="8">
         <v>0.26666666666666666</v>
@@ -19313,7 +19312,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>341</v>
       </c>
@@ -19324,13 +19323,13 @@
         <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E105" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F105" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G105" s="8">
         <v>0.219</v>
@@ -19378,24 +19377,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B106" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D106" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E106" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F106" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G106" s="8">
         <v>0.28500000000000003</v>
@@ -19443,9 +19442,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B107" t="s">
         <v>343</v>
@@ -19454,13 +19453,13 @@
         <v>43</v>
       </c>
       <c r="D107" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E107" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F107" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G107" s="8">
         <v>0.2445</v>
@@ -19508,9 +19507,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B108" t="s">
         <v>344</v>
@@ -19519,13 +19518,13 @@
         <v>44</v>
       </c>
       <c r="D108" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E108" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F108" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G108" s="8">
         <v>0.25159999999999999</v>
@@ -19573,7 +19572,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>345</v>
       </c>
@@ -19584,13 +19583,13 @@
         <v>45</v>
       </c>
       <c r="D109" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E109" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F109" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G109" s="8">
         <v>0.22039999999999998</v>
@@ -19638,9 +19637,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B110" t="s">
         <v>347</v>
@@ -19649,13 +19648,13 @@
         <v>46</v>
       </c>
       <c r="D110" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E110" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F110" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G110" s="8">
         <v>0.29239999999999994</v>
@@ -19703,24 +19702,24 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B111" t="s">
-        <v>348</v>
+        <v>709</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D111" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E111" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F111" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G111" s="8">
         <v>0.26530000000000004</v>
@@ -19768,24 +19767,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B112" t="s">
-        <v>350</v>
+        <v>710</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D112" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E112" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F112" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G112" s="8">
         <v>0.27466666666666667</v>
@@ -19833,24 +19832,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B113" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D113" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E113" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F113" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G113" s="8">
         <v>0.26980000000000004</v>
@@ -19898,24 +19897,24 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B114" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D114" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E114" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F114" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G114" s="8">
         <v>0.2636</v>
@@ -19963,24 +19962,24 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B115" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D115" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E115" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F115" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G115" s="8">
         <v>0.25700000000000001</v>
@@ -20028,24 +20027,24 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B116" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D116" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E116" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F116" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G116" s="8">
         <v>0.30759999999999998</v>
@@ -20093,24 +20092,24 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B117" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D117" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E117" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F117" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G117" s="8">
         <v>0.27680000000000005</v>
@@ -20158,24 +20157,24 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>328</v>
       </c>
       <c r="B118" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D118" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E118" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F118" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G118" s="8">
         <v>0.26200000000000001</v>
@@ -20223,24 +20222,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D119" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E119" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F119" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G119" s="8">
         <v>0.25640000000000002</v>
@@ -20288,24 +20287,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D120" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E120" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F120" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G120" s="8">
         <v>0.31019999999999998</v>
@@ -20353,24 +20352,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B121" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D121" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E121" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F121" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G121" s="8">
         <v>0.27400000000000002</v>
@@ -20418,24 +20417,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>306</v>
       </c>
       <c r="B122" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D122" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E122" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F122" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G122" s="8">
         <v>0.245</v>
@@ -20483,24 +20482,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>312</v>
       </c>
       <c r="B123" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E123" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F123" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G123" s="8">
         <v>0.26639999999999997</v>
@@ -20548,24 +20547,24 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B124" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E124" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F124" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G124" s="8">
         <v>0.26900000000000002</v>
@@ -20613,24 +20612,24 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B125" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E125" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F125" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G125" s="8">
         <v>0.25</v>
@@ -20678,24 +20677,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B126" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E126" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F126" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G126" s="8">
         <v>0.28419999999999995</v>
@@ -20743,24 +20742,24 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B127" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E127" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F127" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G127" s="8">
         <v>0.25700000000000001</v>
@@ -20808,24 +20807,24 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B128" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E128" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F128" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G128" s="8">
         <v>0.22999999999999998</v>
@@ -20873,24 +20872,24 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B129" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E129" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F129" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G129" s="8">
         <v>0.26139999999999997</v>
@@ -20939,7 +20938,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
